--- a/Manuscript_items/Antonio_table.xlsx
+++ b/Manuscript_items/Antonio_table.xlsx
@@ -414,13 +414,13 @@
         <v>2007</v>
       </c>
       <c r="C2">
-        <v>0.1726459256026181</v>
+        <v>0.1723168211058576</v>
       </c>
       <c r="D2">
-        <v>0.152959703617418</v>
+        <v>0.1523333498722394</v>
       </c>
       <c r="E2">
-        <v>0.1923321475878183</v>
+        <v>0.1923002923394758</v>
       </c>
       <c r="F2">
         <v>0.0578</v>
@@ -432,7 +432,7 @@
         <v>0.05966010752377383</v>
       </c>
       <c r="I2">
-        <v>2.986953730149103</v>
+        <v>2.98125988072418</v>
       </c>
     </row>
     <row r="3">
@@ -445,13 +445,13 @@
         <v>2007</v>
       </c>
       <c r="C3">
-        <v>0.1723286617168228</v>
+        <v>0.1719758374050419</v>
       </c>
       <c r="D3">
-        <v>0.1466597796642354</v>
+        <v>0.1458903224440632</v>
       </c>
       <c r="E3">
-        <v>0.1979975437694102</v>
+        <v>0.1980613523660206</v>
       </c>
       <c r="F3">
         <v>0.0808</v>
@@ -463,7 +463,7 @@
         <v>0.08684648658313239</v>
       </c>
       <c r="I3">
-        <v>2.132780466792361</v>
+        <v>2.128413829270321</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>2007</v>
       </c>
       <c r="C4">
-        <v>0.1726913992914945</v>
+        <v>0.1723656945749698</v>
       </c>
       <c r="D4">
-        <v>0.1499450100480368</v>
+        <v>0.1492618759335808</v>
       </c>
       <c r="E4">
-        <v>0.1954377885349522</v>
+        <v>0.1954695132163587</v>
       </c>
       <c r="F4">
         <v>0.0506</v>
@@ -494,7 +494,7 @@
         <v>0.05281810730128188</v>
       </c>
       <c r="I4">
-        <v>3.412873503784477</v>
+        <v>3.406436651679244</v>
       </c>
     </row>
     <row r="5">
@@ -507,13 +507,13 @@
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>0.1780710893988191</v>
+        <v>0.1779147834481618</v>
       </c>
       <c r="D5">
-        <v>0.1663234915227464</v>
+        <v>0.1665489270025765</v>
       </c>
       <c r="E5">
-        <v>0.1898186872748917</v>
+        <v>0.1892806398937471</v>
       </c>
       <c r="F5">
         <v>0.0618</v>
@@ -525,7 +525,7 @@
         <v>0.06395870331449229</v>
       </c>
       <c r="I5">
-        <v>2.881409213573124</v>
+        <v>2.87887999107058</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>0.1739240239781832</v>
+        <v>0.1749966231475007</v>
       </c>
       <c r="D6">
-        <v>0.1487193608962849</v>
+        <v>0.1498823441007042</v>
       </c>
       <c r="E6">
-        <v>0.1991286870600814</v>
+        <v>0.2001109021942972</v>
       </c>
       <c r="F6">
         <v>0.0844</v>
@@ -556,7 +556,7 @@
         <v>0.09204656785754237</v>
       </c>
       <c r="I6">
-        <v>2.06071118457563</v>
+        <v>2.073419705539108</v>
       </c>
     </row>
     <row r="7">
@@ -569,13 +569,13 @@
         <v>2009</v>
       </c>
       <c r="C7">
-        <v>0.1786812158550485</v>
+        <v>0.178344110363067</v>
       </c>
       <c r="D7">
-        <v>0.1657076211288778</v>
+        <v>0.1657949440213892</v>
       </c>
       <c r="E7">
-        <v>0.1916548105812191</v>
+        <v>0.1908932767047448</v>
       </c>
       <c r="F7">
         <v>0.0543</v>
@@ -587,7 +587,7 @@
         <v>0.05693628526529282</v>
       </c>
       <c r="I7">
-        <v>3.290630126243986</v>
+        <v>3.284421921971768</v>
       </c>
     </row>
     <row r="8">
@@ -600,13 +600,13 @@
         <v>2011</v>
       </c>
       <c r="C8">
-        <v>0.1815286209033951</v>
+        <v>0.1811871164036779</v>
       </c>
       <c r="D8">
-        <v>0.1681382487975671</v>
+        <v>0.1680298151875569</v>
       </c>
       <c r="E8">
-        <v>0.1949189930092231</v>
+        <v>0.1943444176197988</v>
       </c>
       <c r="F8">
         <v>0.0629</v>
@@ -618,7 +618,7 @@
         <v>0.06518910462845191</v>
       </c>
       <c r="I8">
-        <v>2.885987613726472</v>
+        <v>2.880558289406644</v>
       </c>
     </row>
     <row r="9">
@@ -631,25 +631,25 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>0.1809169601543704</v>
+        <v>0.1815014861055444</v>
       </c>
       <c r="D9">
-        <v>0.1649509185579489</v>
+        <v>0.1653342429180192</v>
       </c>
       <c r="E9">
-        <v>0.1968830017507918</v>
+        <v>0.1976687292930696</v>
       </c>
       <c r="F9">
         <v>0.08929999999999999</v>
       </c>
       <c r="G9">
-        <v>0.08119629714266372</v>
+        <v>0.08119629714266371</v>
       </c>
       <c r="H9">
         <v>0.09740370285733627</v>
       </c>
       <c r="I9">
-        <v>2.025945802400564</v>
+        <v>2.032491445750777</v>
       </c>
     </row>
     <row r="10">
@@ -662,13 +662,13 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>0.18162136393231</v>
+        <v>0.1811394501141593</v>
       </c>
       <c r="D10">
-        <v>0.165880763629595</v>
+        <v>0.1656199796313359</v>
       </c>
       <c r="E10">
-        <v>0.197361964235025</v>
+        <v>0.1966589205969826</v>
       </c>
       <c r="F10">
         <v>0.0546</v>
@@ -680,7 +680,7 @@
         <v>0.05739642629082192</v>
       </c>
       <c r="I10">
-        <v>3.326398606818864</v>
+        <v>3.317572346413173</v>
       </c>
     </row>
     <row r="11">
@@ -693,13 +693,13 @@
         <v>2013</v>
       </c>
       <c r="C11">
-        <v>0.1826522100768532</v>
+        <v>0.1827135308614177</v>
       </c>
       <c r="D11">
-        <v>0.1607994290405589</v>
+        <v>0.1608456829588282</v>
       </c>
       <c r="E11">
-        <v>0.2045049911131475</v>
+        <v>0.2045813787640072</v>
       </c>
       <c r="F11">
         <v>0.0618</v>
@@ -711,7 +711,7 @@
         <v>0.06406053091109146</v>
       </c>
       <c r="I11">
-        <v>2.955537379884357</v>
+        <v>2.956529625589283</v>
       </c>
     </row>
     <row r="12">
@@ -724,25 +724,25 @@
         <v>2013</v>
       </c>
       <c r="C12">
-        <v>0.1824599024910628</v>
+        <v>0.1826158781932602</v>
       </c>
       <c r="D12">
-        <v>0.1571652879667131</v>
+        <v>0.1570533632767262</v>
       </c>
       <c r="E12">
-        <v>0.2077545170154124</v>
+        <v>0.2081783931097941</v>
       </c>
       <c r="F12">
         <v>0.0878</v>
       </c>
       <c r="G12">
-        <v>0.08001925453442924</v>
+        <v>0.08001925453442923</v>
       </c>
       <c r="H12">
         <v>0.09558074546557077</v>
       </c>
       <c r="I12">
-        <v>2.078131007870875</v>
+        <v>2.07990749650638</v>
       </c>
     </row>
     <row r="13">
@@ -755,13 +755,13 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>0.1826814663011928</v>
+        <v>0.1827283870011546</v>
       </c>
       <c r="D13">
-        <v>0.15862901180475</v>
+        <v>0.1586925043793305</v>
       </c>
       <c r="E13">
-        <v>0.2067339207976357</v>
+        <v>0.2067642696229788</v>
       </c>
       <c r="F13">
         <v>0.0533</v>
@@ -773,7 +773,7 @@
         <v>0.05609642629082191</v>
       </c>
       <c r="I13">
-        <v>3.427419630416376</v>
+        <v>3.428299943736485</v>
       </c>
     </row>
     <row r="14">
@@ -786,13 +786,13 @@
         <v>2015</v>
       </c>
       <c r="C14">
-        <v>0.1641632784411719</v>
+        <v>0.164187640380057</v>
       </c>
       <c r="D14">
-        <v>0.1447605241549126</v>
+        <v>0.1449802079646815</v>
       </c>
       <c r="E14">
-        <v>0.1835660327274312</v>
+        <v>0.1833950727954324</v>
       </c>
       <c r="F14">
         <v>0.0593</v>
@@ -804,7 +804,7 @@
         <v>0.06143307290077015</v>
       </c>
       <c r="I14">
-        <v>2.768352081638649</v>
+        <v>2.768762906914958</v>
       </c>
     </row>
     <row r="15">
@@ -817,13 +817,13 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>0.1408327767228066</v>
+        <v>0.1411914647332071</v>
       </c>
       <c r="D15">
-        <v>0.1051249789749343</v>
+        <v>0.1044877710318146</v>
       </c>
       <c r="E15">
-        <v>0.1765405744706788</v>
+        <v>0.1778951584345996</v>
       </c>
       <c r="F15">
         <v>0.08649999999999999</v>
@@ -835,7 +835,7 @@
         <v>0.09420389511870456</v>
       </c>
       <c r="I15">
-        <v>1.628124586390827</v>
+        <v>1.63227126859199</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>2015</v>
       </c>
       <c r="C16">
-        <v>0.1676980019627482</v>
+        <v>0.1676717113163127</v>
       </c>
       <c r="D16">
-        <v>0.1467883706981504</v>
+        <v>0.1469488985692384</v>
       </c>
       <c r="E16">
-        <v>0.188607633227346</v>
+        <v>0.1883945240633869</v>
       </c>
       <c r="F16">
         <v>0.0503</v>
@@ -866,7 +866,7 @@
         <v>0.053</v>
       </c>
       <c r="I16">
-        <v>3.333956301446287</v>
+        <v>3.333433624578781</v>
       </c>
     </row>
     <row r="17">
@@ -879,13 +879,13 @@
         <v>2017</v>
       </c>
       <c r="C17">
-        <v>0.1805744767662841</v>
+        <v>0.1806568319690357</v>
       </c>
       <c r="D17">
-        <v>0.1675852510298493</v>
+        <v>0.1676739585628445</v>
       </c>
       <c r="E17">
-        <v>0.1935637025027188</v>
+        <v>0.1936397053752269</v>
       </c>
       <c r="F17">
         <v>0.0555</v>
@@ -897,7 +897,7 @@
         <v>0.05739472953214964</v>
       </c>
       <c r="I17">
-        <v>3.253594175969082</v>
+        <v>3.255078053496138</v>
       </c>
     </row>
     <row r="18">
@@ -910,13 +910,13 @@
         <v>2017</v>
       </c>
       <c r="C18">
-        <v>0.1817890243465628</v>
+        <v>0.1823580243608269</v>
       </c>
       <c r="D18">
-        <v>0.1536565873737969</v>
+        <v>0.1540695693600598</v>
       </c>
       <c r="E18">
-        <v>0.2099214613193288</v>
+        <v>0.2106464793615939</v>
       </c>
       <c r="F18">
         <v>0.082</v>
@@ -928,7 +928,7 @@
         <v>0.08847996913572898</v>
       </c>
       <c r="I18">
-        <v>2.216939321299547</v>
+        <v>2.223878345863742</v>
       </c>
     </row>
     <row r="19">
@@ -941,13 +941,13 @@
         <v>2017</v>
       </c>
       <c r="C19">
-        <v>0.1803792427387013</v>
+        <v>0.1803833715894379</v>
       </c>
       <c r="D19">
-        <v>0.1655766094650076</v>
+        <v>0.1656311242122568</v>
       </c>
       <c r="E19">
-        <v>0.1951818760123949</v>
+        <v>0.195135618966619</v>
       </c>
       <c r="F19">
         <v>0.0462</v>
@@ -959,7 +959,7 @@
         <v>0.04855372045918796</v>
       </c>
       <c r="I19">
-        <v>3.904312613391802</v>
+        <v>3.904401982455366</v>
       </c>
     </row>
   </sheetData>

--- a/Manuscript_items/Antonio_table.xlsx
+++ b/Manuscript_items/Antonio_table.xlsx
@@ -407,7 +407,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="B2">
@@ -500,7 +500,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="B5">
@@ -593,7 +593,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="B8">
@@ -686,7 +686,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="B11">
@@ -779,7 +779,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="B14">
@@ -872,7 +872,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="B17">
